--- a/T41_V012_Files_01-15-24/T41_V012_Schematic_PDFs/T41_RF_Board_Block_Diagram_Existing_V12_092124.xlsx
+++ b/T41_V012_Files_01-15-24/T41_V012_Schematic_PDFs/T41_RF_Board_Block_Diagram_Existing_V12_092124.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\T41_V012_Files_01-15-24\T41_V012_Schematic_PDFs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349B754D-9DA5-4FB1-9CE8-F05D6F566436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34814099-7E18-4B75-A499-31CA7A4EFA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{222C09DC-0046-4349-83DE-77B84DBEBECC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{222C09DC-0046-4349-83DE-77B84DBEBECC}"/>
   </bookViews>
   <sheets>
     <sheet name="Existing" sheetId="1" r:id="rId1"/>
-    <sheet name="Proposed" sheetId="2" r:id="rId2"/>
+    <sheet name="Proposed A" sheetId="2" r:id="rId2"/>
+    <sheet name="Proposed B" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,10 +35,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1679,16 +1676,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>317500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1703,7 +1700,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3670300" y="565150"/>
+          <a:off x="2692400" y="1225550"/>
           <a:ext cx="577850" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1733,7 +1730,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>DIV 8</a:t>
+            <a:t>DIV 2</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1742,16 +1739,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>10148</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>292456</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>587998</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133706</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>587998</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>133528</xdr:rowOff>
+      <xdr:colOff>556248</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>330378</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1766,7 +1763,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3667748" y="1581506"/>
+          <a:off x="3635998" y="1238606"/>
           <a:ext cx="577850" cy="380822"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1796,7 +1793,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>DIV 8</a:t>
+            <a:t>DIV 4</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1811,124 +1808,119 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
       <xdr:row>4</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39136D75-4C19-4242-8BD4-BB1AB2D79D14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1816100" y="736600"/>
+          <a:ext cx="3625850" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD5A7640-6EA3-4F25-96C4-9FFA5D3A4461}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1822450" y="2089150"/>
+          <a:ext cx="3689350" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39136D75-4C19-4242-8BD4-BB1AB2D79D14}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="3" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1816100" y="736600"/>
-          <a:ext cx="1854200" cy="19050"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>126940</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>10148</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>129670</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD5A7640-6EA3-4F25-96C4-9FFA5D3A4461}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="3"/>
-          <a:endCxn id="4" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1809750" y="1771590"/>
-          <a:ext cx="1857998" cy="2730"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
         <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
@@ -1939,9 +1931,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5499100" y="2743200"/>
-          <a:ext cx="2457450" cy="19050"/>
+        <a:xfrm>
+          <a:off x="5829300" y="2952750"/>
+          <a:ext cx="2051050" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2029,16 +2021,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>368300</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2053,8 +2045,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="5543550" y="755650"/>
-          <a:ext cx="209550" cy="228600"/>
+          <a:off x="5448300" y="723900"/>
+          <a:ext cx="406400" cy="196850"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2143,15 +2135,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>273050</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2162,12 +2154,14 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="3"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="5549900" y="1778000"/>
-          <a:ext cx="209550" cy="228600"/>
+        <a:xfrm flipH="1">
+          <a:off x="5486400" y="1905000"/>
+          <a:ext cx="361950" cy="215900"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2195,71 +2189,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>603250</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>577850</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Connector: Elbow 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF82E81C-7DCB-44A9-9FD8-68C6EC72FD90}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3041650" y="736600"/>
-          <a:ext cx="2413000" cy="336550"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2270,17 +2209,17 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3060700" y="1765300"/>
-          <a:ext cx="2413000" cy="336550"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 0"/>
-          </a:avLst>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2047875" y="771525"/>
+          <a:ext cx="679450" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
@@ -2305,16 +2244,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>603250</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>498811</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>48660</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>50711</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2325,12 +2264,15 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="2"/>
+          <a:endCxn id="67" idx="1"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4260850" y="755650"/>
-          <a:ext cx="1206500" cy="12700"/>
+        <a:xfrm>
+          <a:off x="2327611" y="2798210"/>
+          <a:ext cx="390189" cy="2051"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2358,16 +2300,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>587998</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>139967</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2378,12 +2320,14 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4254500" y="1758950"/>
-          <a:ext cx="1206500" cy="12700"/>
+        <a:xfrm>
+          <a:off x="3276600" y="1422400"/>
+          <a:ext cx="359398" cy="6617"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2518,9 +2462,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:colOff>241300</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="489621" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -2536,7 +2480,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2209800" y="527050"/>
+          <a:off x="2070100" y="514350"/>
           <a:ext cx="489621" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2576,9 +2520,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>222250</xdr:rowOff>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="489621" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -2594,7 +2538,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2235200" y="1511300"/>
+          <a:off x="2101850" y="1816100"/>
           <a:ext cx="489621" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2634,9 +2578,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:colOff>254000</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="489621" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -2652,7 +2596,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2209800" y="2527300"/>
+          <a:off x="2082800" y="2533650"/>
           <a:ext cx="489621" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2807,10 +2751,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="669222" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -2826,7 +2770,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7956550" y="2597150"/>
+          <a:off x="7880350" y="2806700"/>
           <a:ext cx="669222" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2981,12 +2925,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="753220" cy="264560"/>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="728020" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="26" name="TextBox 25">
@@ -3000,8 +2944,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9423400" y="781050"/>
-          <a:ext cx="753220" cy="264560"/>
+          <a:off x="3536950" y="1663700"/>
+          <a:ext cx="728020" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3030,7 +2974,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>HMC434E</a:t>
+            <a:t>74HCS74</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3040,11 +2984,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="753220" cy="264560"/>
+    <xdr:ext cx="728020" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="27" name="TextBox 26">
@@ -3058,8 +3002,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3587750" y="311150"/>
-          <a:ext cx="753220" cy="264560"/>
+          <a:off x="3549650" y="2324100"/>
+          <a:ext cx="728020" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3088,7 +3032,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>HMC434E</a:t>
+            <a:t>74HCS74</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3097,16 +3041,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>25222</xdr:rowOff>
+      <xdr:rowOff>50622</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3121,7 +3065,455 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3067050" y="2578100"/>
+          <a:off x="3663950" y="2603500"/>
+          <a:ext cx="577850" cy="380822"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>DIV 4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Straight Arrow Connector 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F36AD117-EA70-45F6-A60B-DE6A74904DB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4229100" y="2768600"/>
+          <a:ext cx="1270000" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Connector: Elbow 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEC0B5FA-5A8B-F31F-367A-C8EE6F7F2E24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4216400" y="1022350"/>
+          <a:ext cx="1257300" cy="273050"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="Connector: Elbow 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E17CD71-8243-4539-A273-9921D79FC6B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4229100" y="1530350"/>
+          <a:ext cx="1257300" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="Rectangle 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E404861F-C878-4196-BB3F-D89DA40C1D78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5492750" y="2584450"/>
+          <a:ext cx="374650" cy="711200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="998478" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="TextBox 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C73A30EB-BF71-4A60-96C4-51778C7601E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5213350" y="3397250"/>
+          <a:ext cx="998478" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>MASWSS0179</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="Connector: Elbow 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EED1EF31-3473-305F-5CD3-CDE16402CF1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1847850" y="2800350"/>
+          <a:ext cx="3638550" cy="349250"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 14223"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>374650</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="Straight Arrow Connector 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6572C0ED-5CF4-475D-9A12-32AB6283EE55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5499100" y="2959100"/>
+          <a:ext cx="361950" cy="215900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>56972</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="Rectangle 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{491FF603-1C8D-47B6-B253-6F2B748DD81B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2717800" y="2609850"/>
           <a:ext cx="577850" cy="380822"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3158,6 +3550,1729 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>44361</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>50711</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="Straight Arrow Connector 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7D52915-D4DE-4C78-B003-1E5E53970739}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="67" idx="3"/>
+          <a:endCxn id="30" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3295650" y="2793911"/>
+          <a:ext cx="368300" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="946349" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="TextBox 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{237F37DF-1C8B-4774-95E4-0866B41ED1F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2565400" y="2311400"/>
+          <a:ext cx="946349" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>1/2 74HCS74</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="946349" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="TextBox 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A20C59FC-1A4F-4A76-8C02-1AE6CDE59482}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2571750" y="1644650"/>
+          <a:ext cx="946349" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>1/2 74HCS74</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDDA1170-1219-46B9-B1FE-FC893C1031D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="596900" y="400050"/>
+          <a:ext cx="1212850" cy="2749550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>si5351</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800">
+            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>317500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91E76A69-04DF-4F00-85DC-46FECE484539}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2692400" y="1225550"/>
+          <a:ext cx="577850" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>DIV 2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>587998</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133706</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>556248</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>330378</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2305A573-4DBF-470F-88AF-0DF93A62F8FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3635998" y="1238606"/>
+          <a:ext cx="577850" cy="380822"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>DIV 4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D45A97B7-2139-4215-9F85-8DD6F4A8D056}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1816100" y="736600"/>
+          <a:ext cx="3625850" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC83F77D-B26C-4642-811A-AB51754C9D49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1822450" y="2089150"/>
+          <a:ext cx="3689350" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25D8D6CA-93A3-48D0-9351-8D73695C2C5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5467350" y="527050"/>
+          <a:ext cx="374650" cy="711200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C30663B-9091-4E32-8814-B3B9A707ED0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5448300" y="723900"/>
+          <a:ext cx="406400" cy="196850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6043734F-016B-492B-8999-AA9C41946FAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5473700" y="1549400"/>
+          <a:ext cx="374650" cy="711200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{598119EF-252C-4376-B311-6035258A4F53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5486400" y="1905000"/>
+          <a:ext cx="361950" cy="215900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Connector: Elbow 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDBA4F81-9751-452C-A804-6C462FEA03A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2047875" y="771525"/>
+          <a:ext cx="679450" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>568661</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>48660</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEED631F-61B0-4E08-8BB2-D6AE955FEDF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1787861" y="2798210"/>
+          <a:ext cx="790239" cy="8490"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>587998</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>139967</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F55707C-7C30-4C9C-BF83-5925ABABD26C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3276600" y="1422400"/>
+          <a:ext cx="359398" cy="6617"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6477A4E4-1EDB-48E8-87A5-964E3B115AE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5848350" y="895350"/>
+          <a:ext cx="2044700" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02A31B51-E9A0-4B4E-9E26-AADBB06214F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5848350" y="1911350"/>
+          <a:ext cx="2044700" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="489621" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="TextBox 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FDF6D48-EA16-4796-AFB0-BD2C8FA873B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2070100" y="514350"/>
+          <a:ext cx="489621" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>CLK0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="489621" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="TextBox 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C033AB58-EFE4-4C57-A4E1-5A9FA549BDE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2101850" y="1816100"/>
+          <a:ext cx="489621" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>CLK1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="489621" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="TextBox 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE758927-E747-43DB-AEF8-749A4F437CBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2082800" y="2533650"/>
+          <a:ext cx="489621" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>CLK2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="499689" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="TextBox 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4018B90-E71A-4AFF-AB92-FAE190498EB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7899400" y="762000"/>
+          <a:ext cx="499689" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>I-CLK</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="554126" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="TextBox 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A215C567-5DC7-45EA-875C-9C50F3F5FA71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7886700" y="1784350"/>
+          <a:ext cx="554126" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Q-CLK</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="669222" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="TextBox 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{337FF65D-79F6-4C0E-9316-DB28BD500B33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7880350" y="2806700"/>
+          <a:ext cx="669222" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>CW-CLK</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="998478" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="TextBox 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB3DD5DF-76EF-4ABE-8E94-D62FF2AE81A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5181600" y="2298700"/>
+          <a:ext cx="998478" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>MASWSS0179</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="998478" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="TextBox 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{725F0C5B-766F-42F0-9B12-4DBE97323B89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5200650" y="1231900"/>
+          <a:ext cx="998478" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>MASWSS0179</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="728020" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="TextBox 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0022DAB9-1C2B-493E-AF41-349885A39868}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3536950" y="1663700"/>
+          <a:ext cx="728020" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>74HCS74</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Connector: Elbow 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4A03D93-AC74-461C-9F3A-7B969E2110F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4216400" y="1022350"/>
+          <a:ext cx="1257300" cy="273050"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Connector: Elbow 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DB60CD5-B007-41B2-8DC1-95D30B224711}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4229100" y="1530350"/>
+          <a:ext cx="1257300" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>5280</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Connector: Elbow 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8B83989-91DD-45C6-97F9-9CF5BC4B637A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="22" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="6855360" y="1913990"/>
+          <a:ext cx="1046680" cy="1003300"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="864211" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="TextBox 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47C8D18C-D2D1-4FB3-95E9-EE0E88665712}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2571750" y="1644650"/>
+          <a:ext cx="864211" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>74LVC1G74</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3481,7 +5596,7 @@
   <dimension ref="F7:G8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3503,8 +5618,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526EFDA1-F610-4DBC-8730-AF50664F29A8}">
   <dimension ref="F7:G8"/>
   <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="7" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="6:7" ht="28" x14ac:dyDescent="0.8">
+      <c r="F8" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D301383B-F017-45B7-9E80-21F23A149C04}">
+  <dimension ref="F7:G8"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
